--- a/data/management/Management_information_BON_2017.xlsx
+++ b/data/management/Management_information_BON_2017.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marse\seadrive_root\Tien-Che\My Libraries\PhD_Tien\Project\Briwecs\BRIWECS_Data_Publication\data\management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F04A16-445A-4687-91F7-19AC9DDBF0A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="25440" windowHeight="15885"/>
+    <workbookView xWindow="0" yWindow="525" windowWidth="25440" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bon_2017" sheetId="4" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="116">
   <si>
     <t>General information</t>
   </si>
@@ -369,7 +375,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -731,9 +737,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,6 +767,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -995,11 +1001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1166,10 +1172,10 @@
       <c r="A21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="50">
         <v>76</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="44"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
@@ -1178,19 +1184,19 @@
       <c r="L21" s="24"/>
     </row>
     <row r="22" spans="1:12" ht="98.25" customHeight="1">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="53">
         <v>2005</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="29"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="40"/>
+      <c r="G22" s="54"/>
       <c r="H22" s="30"/>
       <c r="I22" s="29"/>
       <c r="L22" s="24"/>
@@ -1199,15 +1205,15 @@
       <c r="A23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="51">
         <v>42668</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="34"/>
-      <c r="G23" s="40"/>
+      <c r="G23" s="54"/>
       <c r="H23" s="30"/>
       <c r="I23" s="29"/>
       <c r="L23" s="24"/>
@@ -1246,10 +1252,10 @@
       <c r="A26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="45"/>
+      <c r="C26" s="44"/>
       <c r="E26" s="29"/>
       <c r="F26" s="34"/>
       <c r="G26" s="31"/>
@@ -1261,10 +1267,10 @@
       <c r="A27" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="47"/>
+      <c r="C27" s="46"/>
       <c r="E27" s="29"/>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -1276,10 +1282,10 @@
       <c r="A28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="42">
         <v>0.15</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="47">
         <v>42248</v>
       </c>
       <c r="D28" s="22"/>
@@ -1294,10 +1300,10 @@
       <c r="A29" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="42">
         <v>0.08</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="47">
         <v>42248</v>
       </c>
       <c r="L29" s="24"/>
@@ -1306,10 +1312,10 @@
       <c r="A30" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="42">
         <v>0.77</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="47">
         <v>42248</v>
       </c>
       <c r="L30" s="24"/>
@@ -1318,10 +1324,10 @@
       <c r="A31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="42">
+      <c r="B31" s="41">
         <v>7</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="47">
         <v>42248</v>
       </c>
       <c r="L31" s="24"/>
@@ -1330,10 +1336,10 @@
       <c r="A32" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="42">
         <v>2.4E-2</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="47">
         <v>42248</v>
       </c>
       <c r="L32" s="24"/>
@@ -1342,10 +1348,10 @@
       <c r="A33" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="47">
         <v>42248</v>
       </c>
       <c r="L33" s="24"/>
@@ -1354,10 +1360,10 @@
       <c r="A34" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="47">
         <v>42248</v>
       </c>
       <c r="L34" s="24"/>
@@ -1366,20 +1372,20 @@
       <c r="A35" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="47"/>
+      <c r="C35" s="46"/>
       <c r="L35" s="24"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="48">
         <v>42767</v>
       </c>
       <c r="L36" s="24"/>
@@ -1388,10 +1394,10 @@
       <c r="A37" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="49">
+      <c r="C37" s="48">
         <v>42783</v>
       </c>
       <c r="L37" s="24"/>
@@ -1400,10 +1406,10 @@
       <c r="A38" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="49">
+      <c r="C38" s="48">
         <v>42783</v>
       </c>
       <c r="L38" s="24"/>
@@ -1412,10 +1418,10 @@
       <c r="A39" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="49">
+      <c r="C39" s="48">
         <v>42783</v>
       </c>
       <c r="L39" s="24"/>
@@ -1427,7 +1433,7 @@
       <c r="B40" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="46"/>
+      <c r="C40" s="45"/>
       <c r="L40" s="24"/>
     </row>
     <row r="41" spans="1:12">
@@ -1489,9 +1495,11 @@
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="39">
-        <v>0</v>
+      <c r="B44" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="7">
+        <v>42818</v>
       </c>
       <c r="D44" s="39">
         <v>0</v>
@@ -1523,9 +1531,11 @@
       <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="39">
-        <v>0</v>
+      <c r="B45" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="11">
+        <v>42844</v>
       </c>
       <c r="D45" s="39">
         <v>0</v>
@@ -1557,9 +1567,11 @@
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="39">
-        <v>0</v>
+      <c r="B46" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="11">
+        <v>42884</v>
       </c>
       <c r="D46" s="39">
         <v>0</v>
@@ -2365,7 +2377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2379,7 +2391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
